--- a/biology/Médecine/Ligament_pubien_inférieur/Ligament_pubien_inférieur.xlsx
+++ b/biology/Médecine/Ligament_pubien_inférieur/Ligament_pubien_inférieur.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ligament_pubien_inf%C3%A9rieur</t>
+          <t>Ligament_pubien_inférieur</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le ligament pubien inférieur est un ligament de la symphyse pubienne.
 Pour ce ligament la littérature utilise une terminologie variée :
@@ -500,7 +512,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ligament_pubien_inf%C3%A9rieur</t>
+          <t>Ligament_pubien_inférieur</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -518,7 +530,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le ligament pubien supérieur est une lame fibreuse tendue entre les branches inférieures du pubis en arrière et en dessous de l'articulation.
 Son bord libre postérieur et inférieur est concave et tranchant.
@@ -533,7 +547,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ligament_pubien_inf%C3%A9rieur</t>
+          <t>Ligament_pubien_inférieur</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -551,7 +565,9 @@
           <t>Aspect clinique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Pour les obstétriciens, il constitue l'arcade pubienne sur laquelle se défléchit la tête fœtale lors de l'accouchement.
 </t>
